--- a/data_output/prism_passive/all_passive_out_emg_mean_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_max.xlsx
@@ -363,60 +363,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>4.5996122317451098</v>
+      </c>
       <c r="C2">
+        <v>2.4250833997294059</v>
+      </c>
+      <c r="D2">
+        <v>15.202512015379936</v>
+      </c>
+      <c r="E2">
+        <v>15.01515753634496</v>
+      </c>
+      <c r="F2">
+        <v>12.545842482534093</v>
+      </c>
+      <c r="G2">
+        <v>4.0643128354027818</v>
+      </c>
+      <c r="H2">
+        <v>15.726588184235316</v>
+      </c>
+      <c r="I2">
+        <v>2.2213821261683715</v>
+      </c>
+      <c r="J2">
+        <v>11.790398139018938</v>
+      </c>
+      <c r="K2">
+        <v>12.977939721261825</v>
+      </c>
+      <c r="L2">
+        <v>4.1268056659546675</v>
+      </c>
+      <c r="M2">
+        <v>2.6076466925766471</v>
+      </c>
+      <c r="O2">
         <v>2.315933914723749</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.110081694751651</v>
+      </c>
+      <c r="Q2">
+        <v>2.0031054931714296</v>
+      </c>
+      <c r="R2">
+        <v>3.4082036141457337</v>
+      </c>
+      <c r="S2">
+        <v>8.4355732795391134</v>
+      </c>
+      <c r="T2">
+        <v>3.4299648393137407</v>
+      </c>
+      <c r="U2">
+        <v>3.9985153774354618</v>
+      </c>
+      <c r="V2">
+        <v>11.517162895528365</v>
+      </c>
+      <c r="W2">
+        <v>7.1062947069662279</v>
+      </c>
+      <c r="X2">
+        <v>3.4421235101701377</v>
+      </c>
+      <c r="Y2">
+        <v>0.85465098796985173</v>
+      </c>
+      <c r="AA2">
+        <v>8.3449933160589129</v>
+      </c>
+      <c r="AB2">
+        <v>2.6633729785271743</v>
+      </c>
+      <c r="AC2">
+        <v>14.850809279321354</v>
+      </c>
+      <c r="AD2">
+        <v>7.7393140129647078</v>
+      </c>
+      <c r="AE2">
+        <v>13.323984987455995</v>
+      </c>
+      <c r="AF2">
+        <v>4.098224001916952</v>
+      </c>
+      <c r="AG2">
+        <v>17.520309008198172</v>
+      </c>
+      <c r="AH2">
+        <v>2.1124335956668929</v>
+      </c>
+      <c r="AI2">
+        <v>11.950030067876119</v>
+      </c>
+      <c r="AJ2">
+        <v>10.961773504850084</v>
+      </c>
+      <c r="AK2">
+        <v>3.9562157901579993</v>
+      </c>
+      <c r="AL2">
+        <v>3.9177999285483782</v>
+      </c>
+      <c r="AM2">
         <v>1.0341826572269854</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.8754786404062656</v>
       </c>
+      <c r="AO2">
+        <v>3.0806339670326035</v>
+      </c>
+      <c r="AP2">
+        <v>1.9706724024550961</v>
+      </c>
+      <c r="AQ2">
+        <v>2.552597812449072</v>
+      </c>
+      <c r="AR2">
+        <v>5.1222357919059283</v>
+      </c>
+      <c r="AS2">
+        <v>6.4153087564722107</v>
+      </c>
+      <c r="AT2">
+        <v>1.3660974717880361</v>
+      </c>
+      <c r="AU2">
+        <v>8.8377795490882232</v>
+      </c>
+      <c r="AV2">
+        <v>7.3227262379776903</v>
+      </c>
+      <c r="AW2">
+        <v>0.7814719231444357</v>
+      </c>
+      <c r="AX2">
+        <v>0.67152927269440754</v>
+      </c>
+      <c r="AY2">
+        <v>2.9997265949692582</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.574125317343098</v>
+      </c>
+      <c r="C3">
+        <v>3.3318346939904635</v>
+      </c>
+      <c r="D3">
+        <v>2.86519677428333</v>
+      </c>
+      <c r="E3">
+        <v>14.484026517993366</v>
+      </c>
+      <c r="F3">
+        <v>4.6354322559707208</v>
+      </c>
+      <c r="G3">
+        <v>3.7619523556219732</v>
+      </c>
+      <c r="H3">
+        <v>12.190706990969062</v>
+      </c>
+      <c r="I3">
+        <v>3.1118871368279635</v>
+      </c>
+      <c r="J3">
+        <v>8.6069154026575792</v>
+      </c>
+      <c r="K3">
+        <v>5.7689315914916834</v>
+      </c>
+      <c r="L3">
+        <v>2.1389756673840483</v>
+      </c>
+      <c r="M3">
+        <v>5.8175932111738105</v>
+      </c>
+      <c r="N3">
         <v>1.4823434170342502</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.0717107580694885</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.7040413895209454</v>
+      </c>
+      <c r="Q3">
+        <v>2.0078474613816693</v>
+      </c>
+      <c r="R3">
+        <v>6.7959231386296537</v>
+      </c>
+      <c r="S3">
+        <v>3.4249410691998565</v>
+      </c>
+      <c r="T3">
+        <v>1.2594934681425913</v>
+      </c>
+      <c r="U3">
+        <v>5.5790906924579353</v>
+      </c>
+      <c r="V3">
+        <v>6.4808764843353677</v>
+      </c>
+      <c r="W3">
+        <v>1.1699462997270536</v>
+      </c>
+      <c r="X3">
+        <v>1.5035178439938897</v>
+      </c>
+      <c r="Y3">
+        <v>1.5643964017151297</v>
+      </c>
+      <c r="AA3">
+        <v>5.9796184766929201</v>
+      </c>
+      <c r="AB3">
+        <v>15.527227300069342</v>
+      </c>
+      <c r="AC3">
+        <v>7.4130158996664024</v>
+      </c>
+      <c r="AD3">
+        <v>7.5564618950121663</v>
+      </c>
+      <c r="AE3">
+        <v>11.034650291982544</v>
+      </c>
+      <c r="AF3">
+        <v>2.7854438474878744</v>
+      </c>
+      <c r="AG3">
+        <v>10.649922018149288</v>
+      </c>
+      <c r="AH3">
+        <v>0.97089649333248484</v>
+      </c>
+      <c r="AI3">
+        <v>9.3655512452991978</v>
+      </c>
+      <c r="AJ3">
+        <v>7.2459742479570961</v>
+      </c>
+      <c r="AK3">
+        <v>1.7819757069143529</v>
+      </c>
+      <c r="AL3">
+        <v>5.6802226061509176</v>
+      </c>
+      <c r="AM3">
         <v>5.3234170633826414</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.3825852420090987</v>
+      </c>
+      <c r="AO3">
+        <v>3.5560319180975228</v>
+      </c>
+      <c r="AP3">
+        <v>0.85082119304510684</v>
+      </c>
+      <c r="AQ3">
+        <v>2.1636910958710982</v>
+      </c>
+      <c r="AR3">
+        <v>2.4494656921846452</v>
+      </c>
+      <c r="AS3">
+        <v>4.0003162698563655</v>
+      </c>
+      <c r="AT3">
+        <v>2.1042725985750517</v>
+      </c>
+      <c r="AU3">
+        <v>13.213376241621567</v>
+      </c>
+      <c r="AV3">
+        <v>4.4860696307173011</v>
+      </c>
+      <c r="AW3">
+        <v>4.0427296324156963</v>
+      </c>
+      <c r="AX3">
+        <v>2.1902591972973022</v>
+      </c>
+      <c r="AY3">
+        <v>5.8330522530419158</v>
       </c>
     </row>
   </sheetData>
